--- a/ユースケース記述.xlsx
+++ b/ユースケース記述.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buki_\work\etrc-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8384C3B3-E9AA-4785-A76B-65A51BA96975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B770BEC6-9E4C-4745-A672-032BDA2FFA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>概要</t>
   </si>
@@ -36,27 +36,6 @@
   </si>
   <si>
     <t>基本フロー</t>
-  </si>
-  <si>
-    <t>[UC::02]　[UC::05]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>[UC::01]　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>緩和[UC::01]</t>
-    </r>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -79,8 +58,186 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>[UC:00]ダブルループを走破する</t>
+    <rPh sb="14" eb="16">
+      <t>ソウハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>走行体がダブルループを走破する</t>
+    <rPh sb="0" eb="3">
+      <t>ソウコウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>競技者</t>
+    <rPh sb="0" eb="3">
+      <t>キョウギシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>走行体がLAPゲートを通過している</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>走行体が青サークルに到達している</t>
+    <rPh sb="0" eb="3">
+      <t>ソウコウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウタツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１，速ライントレースを行う（PID制御）</t>
+    <rPh sb="2" eb="3">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２，青色を検知するまで基本フロー１を繰り返す</t>
+    <rPh sb="2" eb="4">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３，青色を検知したらシーンを更新する</t>
+    <rPh sb="2" eb="4">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４、遅ライントレースを行う（PID制御）</t>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>６，青色を検知しなくなったらシーンを更新し、
+注目エッジを切り替え、ライントレース速度を上げる</t>
+    <rPh sb="2" eb="4">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>８，青サークルを検出すると、走行を終了する</t>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>５、青色を検知しなくなるまで基本フロー４を繰り返す</t>
+    <rPh sb="2" eb="4">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>７，２～６を繰り返し、ダブルループを走行する</t>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[UC::01]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[UC::05]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>[UC::01]　</t>
+      <t>[UC::04]　</t>
     </r>
     <r>
       <rPr>
@@ -91,7 +248,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>緩和[UC::01]</t>
+      <t>緩和[UC::02]</t>
     </r>
     <r>
       <rPr>
@@ -102,178 +259,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-[UC::03]</t>
+[UC::02]
+[UC::05]</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[UC:00]ダブルループを走破する</t>
-    <rPh sb="14" eb="16">
-      <t>ソウハ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>走行体がダブルループを走破する</t>
-    <rPh sb="0" eb="3">
-      <t>ソウコウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソウハ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>競技者</t>
-    <rPh sb="0" eb="3">
-      <t>キョウギシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>走行体がLAPゲートを通過している</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>走行体が青サークルに到達している</t>
-    <rPh sb="0" eb="3">
-      <t>ソウコウタイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウタツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>１，速ライントレースを行う（PID制御）</t>
-    <rPh sb="2" eb="3">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>２，青色を検知するまで基本フロー１を繰り返す</t>
-    <rPh sb="2" eb="4">
-      <t>アオイロ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>３，青色を検知したらシーンを更新する</t>
-    <rPh sb="2" eb="4">
-      <t>アオイロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>４、遅ライントレースを行う（PID制御）</t>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>６，青色を検知しなくなったらシーンを更新し、
-注目エッジを切り替え、ライントレース速度を上げる</t>
-    <rPh sb="2" eb="4">
-      <t>アオイロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>チュウモク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>８，青サークルを検出すると、走行を終了する</t>
-    <rPh sb="2" eb="3">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケンシュツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>５、青色を検知しなくなるまで基本フロー４を繰り返す</t>
-    <rPh sb="2" eb="4">
-      <t>アオイロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>７，２～６を繰り返し、ダブルループを走行する</t>
-    <rPh sb="6" eb="7">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソウコウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -933,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -947,7 +935,7 @@
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="7"/>
@@ -957,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="7"/>
@@ -967,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="7"/>
@@ -977,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="7"/>
@@ -987,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="7"/>
@@ -997,63 +985,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="7"/>
@@ -1061,7 +1053,7 @@
     <row r="13" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
